--- a/pred_ohlcv/54_21/2019-10-26 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PLY ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>1882026.2337</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1739678.995000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2553503.405500001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2553614.405500001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2553604.405500001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2716133.119800001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2911624.069100001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2757961.352900001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2826909.353500001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2753173.196600001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2531279.196200001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2696733.692200001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2467937.844600001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3164386.168467569</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3181024.305467569</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3145539.841867569</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3074150.026267569</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3257908.689567569</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3257908.689567569</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3728628.089267569</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3728628.089267569</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3728608.089267569</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3728598.089267569</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3938553.728767569</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3939483.728767569</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3938532.728767569</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3938512.728767569</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3947452.728767569</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4144775.780867569</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3995866.294467569</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>4100128.170867569</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>4100118.170867569</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4132627.437467569</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2281687.381767569</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2164397.498667569</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>216509.6871675689</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-216072.5739324311</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-510719.0966324311</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-510709.0966324311</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-510699.0966324311</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-578801.899132431</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-584976.375432431</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-763417.392932431</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-864991.062532431</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1232076.473932431</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1289958.294132431</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1044158.917532431</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1044158.917532431</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1044148.917532431</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1109346.205632431</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1229972.795932431</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1295512.790132431</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1425095.898432431</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1425095.898432431</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1420462.203832431</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1513565.203832431</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1442088.954332431</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1376579.752232431</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1440573.857832431</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1297595.586232431</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1119567.692432431</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1259655.759132431</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1163121.764632431</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1023808.262132431</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1259295.63573243</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1177021.81023243</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1190021.81023243</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1189921.81023243</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1405620.701932431</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3555226.44713243</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-9195853.880632438</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-15926344.95493068</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-16430764.20073068</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-16454013.73303068</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-16477217.08653068</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-17013824.47503068</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-17147442.82323068</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-17147442.82323068</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-17668271.47253067</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-17976651.57103068</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-17741264.81613068</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-17311840.63773068</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-17313604.37513068</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-17453310.50093068</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-17303661.97793068</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-18163752.77413068</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-18233721.89043069</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-17982177.23823069</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-17926666.79873069</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-17065803.31153069</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-17457892.05603069</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-17534128.92163069</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-17534118.92163069</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-17342118.92163069</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-17419767.96663069</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-17313757.96663069</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PLY ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>1882026.2337</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1739678.995000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2407848.348300001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2553503.405500001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2553614.405500001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2553604.405500001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2911187.794900001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2716133.119800001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2662081.540100001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2911624.069100001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2757961.352900001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2826909.353500001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2751927.196600001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2753173.196600001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2531279.196200001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2696733.692200001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2552321.940100001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2597712.066100001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2467937.844600001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3938532.728767569</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3947452.728767569</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4144775.780867569</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>4079157.437467569</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>4100118.170867569</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4132627.437467569</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3832627.437467569</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2281687.381767569</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>194445.6486675689</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>216509.6871675689</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-216072.5739324311</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-510719.0966324311</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-510709.0966324311</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-510699.0966324311</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-541775.509732431</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-578811.899132431</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-578801.899132431</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-603098.588132431</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-584976.375432431</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-633671.165032431</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-864991.062532431</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-941196.255932431</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1232076.473932431</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1289958.294132431</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1044148.917532431</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1109346.205632431</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1109336.205632431</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1229972.795932431</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1128595.382832431</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1295512.790132431</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1425095.898432431</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1425095.898432431</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1278681.013832431</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1420462.203832431</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1513565.203832431</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1442088.954332431</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1442098.954332431</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1376579.752232431</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1324957.637132431</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1440573.857832431</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1254144.782832431</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1297595.586232431</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1119577.692432431</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1119567.692432431</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1155839.648632431</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1259655.759132431</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1162871.764632431</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1163121.764632431</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-978807.8847324306</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1023808.262132431</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1023798.262132431</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1037801.143232431</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1199026.08133243</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1209026.08133243</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1259295.63573243</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1187031.81023243</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1177021.81023243</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1190021.81023243</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1189921.81023243</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1405620.701932431</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3555226.44713243</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-6079883.945332438</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-8095853.880632438</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-9195853.880632438</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-8186165.570132437</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-7967489.068432437</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-7917195.407732437</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-15926344.95493068</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-16430764.20073068</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-16454013.73303068</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-16477217.08653068</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-17013824.47503068</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-17147442.82323068</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-17147442.82323068</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-16930067.04583068</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-17655097.75753067</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-17668271.47253067</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-17649470.04033067</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-17976651.57103068</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-17741264.81613068</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-17311840.63773068</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-17558865.43493068</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-17313604.37513068</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-17453310.50093068</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-17876559.37383068</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-17684700.60293068</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-17507657.69103068</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-17365162.75463068</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-17776472.90773068</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-17303661.97793068</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-17170209.70563069</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-17065803.31153069</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-17457892.05603069</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-17534128.92163069</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-17534118.92163069</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-17342118.92163069</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-17419767.96663069</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-17313757.96663069</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
